--- a/planilhas_diarias/fonte_DDE.xlsx
+++ b/planilhas_diarias/fonte_DDE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1998a\Documents\GitHub\bolsistas_da\planilhas_diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D52D0E7-FE07-49BC-9DA7-1F02275CCCE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB96498-CCC8-4257-B316-97AA7032FADD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C038CEB-9B45-4F67-85E3-1396042E3C2A}"/>
+    <workbookView xWindow="20370" yWindow="-75" windowWidth="20730" windowHeight="11160" xr2:uid="{9C038CEB-9B45-4F67-85E3-1396042E3C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="DDE" sheetId="1" r:id="rId1"/>
@@ -2560,35 +2560,35 @@
       <ddeItem name="BOAS3.NEG" advise="1">
         <values>
           <value>
-            <val>2706</val>
+            <val>4107</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="BOAS3.QTT" advise="1">
         <values>
           <value>
-            <val>642700</val>
+            <val>3710400</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="BOAS3.ULT" advise="1">
         <values>
           <value>
-            <val>10.63</val>
+            <val>10.56</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="BOAS3.VAR" advise="1">
         <values>
           <value>
-            <val>-5.1739518287243538</val>
+            <val>-5.7983942908117783</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="BOAS3.VOL" advise="1">
         <values>
           <value>
-            <val>6908624</val>
+            <val>39562944</val>
           </value>
         </values>
       </ddeItem>
@@ -13583,7 +13583,7 @@
       </c>
       <c r="C23" cm="1">
         <f t="array" ref="C23">[1]!BOAS3.ULT</f>
-        <v>10.63</v>
+        <v>10.56</v>
       </c>
       <c r="D23" cm="1">
         <f t="array" ref="D23">[1]!BOAS3.ABE</f>
@@ -13599,22 +13599,22 @@
       </c>
       <c r="G23" cm="1">
         <f t="array" ref="G23">[1]!BOAS3.VAR</f>
-        <v>-5.1739518287243538</v>
+        <v>-5.7983942908117783</v>
       </c>
       <c r="H23" t="s">
         <v>54</v>
       </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">[1]!BOAS3.NEG</f>
-        <v>2706</v>
+        <v>4107</v>
       </c>
       <c r="J23" cm="1">
         <f t="array" ref="J23">[1]!BOAS3.QTT</f>
-        <v>642700</v>
+        <v>3710400</v>
       </c>
       <c r="K23" cm="1">
         <f t="array" ref="K23">[1]!BOAS3.VOL</f>
-        <v>6908624</v>
+        <v>39562944</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">

--- a/planilhas_diarias/fonte_DDE.xlsx
+++ b/planilhas_diarias/fonte_DDE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1998a\Documents\GitHub\bolsistas_da\planilhas_diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB96498-CCC8-4257-B316-97AA7032FADD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B13255A-1B16-486A-BF08-116AC3F42425}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-75" windowWidth="20730" windowHeight="11160" xr2:uid="{9C038CEB-9B45-4F67-85E3-1396042E3C2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C038CEB-9B45-4F67-85E3-1396042E3C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="DDE" sheetId="1" r:id="rId1"/>
@@ -7208,7 +7208,7 @@
       <ddeItem name="LJQQ3.MAX" advise="1">
         <values>
           <value>
-            <val>17.38</val>
+            <val>16.93</val>
           </value>
         </values>
       </ddeItem>
@@ -7222,35 +7222,35 @@
       <ddeItem name="LJQQ3.NEG" advise="1">
         <values>
           <value>
-            <val>9107</val>
+            <val>2647</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="LJQQ3.QTT" advise="1">
         <values>
           <value>
-            <val>3604800</val>
+            <val>943100</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="LJQQ3.ULT" advise="1">
         <values>
           <value>
-            <val>17.29</val>
+            <val>16.79</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="LJQQ3.VAR" advise="1">
         <values>
           <value>
-            <val>6.0736196319018303</val>
+            <val>3.0061349693251436</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="LJQQ3.VOL" advise="1">
         <values>
           <value>
-            <val>61219193</val>
+            <val>15780943</val>
           </value>
         </values>
       </ddeItem>
@@ -16839,7 +16839,7 @@
       </c>
       <c r="C97" cm="1">
         <f t="array" ref="C97">[1]!LJQQ3.ULT</f>
-        <v>17.29</v>
+        <v>16.79</v>
       </c>
       <c r="D97" cm="1">
         <f t="array" ref="D97">[1]!LJQQ3.ABE</f>
@@ -16847,7 +16847,7 @@
       </c>
       <c r="E97" cm="1">
         <f t="array" ref="E97">[1]!LJQQ3.MAX</f>
-        <v>17.38</v>
+        <v>16.93</v>
       </c>
       <c r="F97" cm="1">
         <f t="array" ref="F97">[1]!LJQQ3.MIN</f>
@@ -16855,22 +16855,22 @@
       </c>
       <c r="G97" cm="1">
         <f t="array" ref="G97">[1]!LJQQ3.VAR</f>
-        <v>6.0736196319018303</v>
+        <v>3.0061349693251436</v>
       </c>
       <c r="H97" t="s">
         <v>202</v>
       </c>
       <c r="I97" cm="1">
         <f t="array" ref="I97">[1]!LJQQ3.NEG</f>
-        <v>9107</v>
+        <v>2647</v>
       </c>
       <c r="J97" cm="1">
         <f t="array" ref="J97">[1]!LJQQ3.QTT</f>
-        <v>3604800</v>
+        <v>943100</v>
       </c>
       <c r="K97" cm="1">
         <f t="array" ref="K97">[1]!LJQQ3.VOL</f>
-        <v>61219193</v>
+        <v>15780943</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">

--- a/planilhas_diarias/fonte_DDE.xlsx
+++ b/planilhas_diarias/fonte_DDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1998a\Documents\GitHub\bolsistas_da\planilhas_diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B13255A-1B16-486A-BF08-116AC3F42425}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E3BC0F-1EE2-43A5-8B2E-F697F9739D69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C038CEB-9B45-4F67-85E3-1396042E3C2A}"/>
   </bookViews>
@@ -7208,7 +7208,7 @@
       <ddeItem name="LJQQ3.MAX" advise="1">
         <values>
           <value>
-            <val>16.93</val>
+            <val>17.38</val>
           </value>
         </values>
       </ddeItem>
@@ -7222,35 +7222,35 @@
       <ddeItem name="LJQQ3.NEG" advise="1">
         <values>
           <value>
-            <val>2647</val>
+            <val>9107</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="LJQQ3.QTT" advise="1">
         <values>
           <value>
-            <val>943100</val>
+            <val>3604800</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="LJQQ3.ULT" advise="1">
         <values>
           <value>
-            <val>16.79</val>
+            <val>17.29</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="LJQQ3.VAR" advise="1">
         <values>
           <value>
-            <val>3.0061349693251436</val>
+            <val>6.0736196319018303</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="LJQQ3.VOL" advise="1">
         <values>
           <value>
-            <val>15780943</val>
+            <val>61219193</val>
           </value>
         </values>
       </ddeItem>
@@ -16839,7 +16839,7 @@
       </c>
       <c r="C97" cm="1">
         <f t="array" ref="C97">[1]!LJQQ3.ULT</f>
-        <v>16.79</v>
+        <v>17.29</v>
       </c>
       <c r="D97" cm="1">
         <f t="array" ref="D97">[1]!LJQQ3.ABE</f>
@@ -16847,7 +16847,7 @@
       </c>
       <c r="E97" cm="1">
         <f t="array" ref="E97">[1]!LJQQ3.MAX</f>
-        <v>16.93</v>
+        <v>17.38</v>
       </c>
       <c r="F97" cm="1">
         <f t="array" ref="F97">[1]!LJQQ3.MIN</f>
@@ -16855,22 +16855,22 @@
       </c>
       <c r="G97" cm="1">
         <f t="array" ref="G97">[1]!LJQQ3.VAR</f>
-        <v>3.0061349693251436</v>
+        <v>6.0736196319018303</v>
       </c>
       <c r="H97" t="s">
         <v>202</v>
       </c>
       <c r="I97" cm="1">
         <f t="array" ref="I97">[1]!LJQQ3.NEG</f>
-        <v>2647</v>
+        <v>9107</v>
       </c>
       <c r="J97" cm="1">
         <f t="array" ref="J97">[1]!LJQQ3.QTT</f>
-        <v>943100</v>
+        <v>3604800</v>
       </c>
       <c r="K97" cm="1">
         <f t="array" ref="K97">[1]!LJQQ3.VOL</f>
-        <v>15780943</v>
+        <v>61219193</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">

--- a/planilhas_diarias/fonte_DDE.xlsx
+++ b/planilhas_diarias/fonte_DDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1998a\Documents\GitHub\bolsistas_da\planilhas_diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD30259-4856-40B5-AFE1-35500853867E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B606061-C224-4E73-AFA3-89F6E2DF7EE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C038CEB-9B45-4F67-85E3-1396042E3C2A}"/>
   </bookViews>

--- a/planilhas_diarias/fonte_DDE.xlsx
+++ b/planilhas_diarias/fonte_DDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1998a\Documents\GitHub\bolsistas_da\planilhas_diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110ADC8A-CA92-450E-8951-327642C0E417}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B8C742-B936-4CF7-B6E8-3A59EEE56B27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C038CEB-9B45-4F67-85E3-1396042E3C2A}"/>
   </bookViews>
@@ -12668,7 +12668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C323AF2-A28A-46CA-A879-43D8EA08965E}">
   <dimension ref="A1:K178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>

--- a/planilhas_diarias/fonte_DDE.xlsx
+++ b/planilhas_diarias/fonte_DDE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1998a\Documents\GitHub\bolsistas_da\planilhas_diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A5D201-F826-4EE5-B37B-1708AAAB142D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11861475-6C8E-4FCD-8BFA-3E1E7B00DDC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5565" windowWidth="15375" windowHeight="7965" xr2:uid="{9C038CEB-9B45-4F67-85E3-1396042E3C2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C038CEB-9B45-4F67-85E3-1396042E3C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="DDE" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
   <si>
     <t>Asset</t>
   </si>
@@ -268,9 +268,6 @@
     <t>ELET3</t>
   </si>
   <si>
-    <t>Eletrobras ON N1</t>
-  </si>
-  <si>
     <t>ENEV3</t>
   </si>
   <si>
@@ -1160,6 +1157,15 @@
   </si>
   <si>
     <t>Wiz S.A. ON NM</t>
+  </si>
+  <si>
+    <t>Eletrobras ON ED N1</t>
+  </si>
+  <si>
+    <t>INTB3</t>
+  </si>
+  <si>
+    <t>Intelbras ON NM</t>
   </si>
 </sst>
 </file>
@@ -4462,35 +4468,35 @@
       <ddeItem name="DMVF3.NEG" advise="1">
         <values>
           <value>
-            <val>351</val>
+            <val>411</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DMVF3.QTT" advise="1">
         <values>
           <value>
-            <val>119300</val>
+            <val>135200</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DMVF3.ULT" advise="1">
         <values>
           <value>
-            <val>11.79</val>
+            <val>11.73</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DMVF3.VAR" advise="1">
         <values>
           <value>
-            <val>-0.75757575757577134</val>
+            <val>-1.2626262626262656</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DMVF3.VOL" advise="1">
         <values>
           <value>
-            <val>1416760</val>
+            <val>1604112</val>
           </value>
         </values>
       </ddeItem>
@@ -6510,839 +6516,902 @@
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="IRBR3.ABE" advise="1">
-        <values>
-          <value>
-            <val>7.26</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="IRBR3.DAT" advise="1">
+      <ddeItem name="INTB3.ABE" advise="1">
+        <values>
+          <value>
+            <val>18.5</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="INTB3.DAT" advise="1">
         <values>
           <value t="str">
             <val>04/02/2021</val>
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="IRBR3.MAX" advise="1">
-        <values>
-          <value>
-            <val>7.34</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="IRBR3.MIN" advise="1">
-        <values>
-          <value>
-            <val>7.06</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="IRBR3.NEG" advise="1">
-        <values>
-          <value>
-            <val>17663</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="IRBR3.QTT" advise="1">
-        <values>
-          <value>
-            <val>26636400</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="IRBR3.ULT" advise="1">
-        <values>
-          <value>
-            <val>7.12</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="IRBR3.VAR" advise="1">
-        <values>
-          <value>
-            <val>-2.3319615912208493</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="IRBR3.VOL" advise="1">
-        <values>
-          <value>
-            <val>191645339</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="ITSA4.ABE" advise="1">
-        <values>
-          <value>
-            <val>10.85</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="ITSA4.DAT" advise="1">
+      <ddeItem name="INTB3.MAX" advise="1">
+        <values>
+          <value>
+            <val>20.34</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="INTB3.MIN" advise="1">
+        <values>
+          <value>
+            <val>18.11</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="INTB3.NEG" advise="1">
+        <values>
+          <value>
+            <val>59999</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="INTB3.QTT" advise="1">
+        <values>
+          <value>
+            <val>25822600</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="INTB3.ULT" advise="1">
+        <values>
+          <value>
+            <val>19.739999999999998</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="INTB3.VAR" advise="1">
+        <values>
+          <value>
+            <val>6.7027027027026946</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="INTB3.VOL" advise="1">
+        <values>
+          <value>
+            <val>492087713</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="IRBR3.ABE" advise="1">
+        <values>
+          <value>
+            <val>7.26</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="IRBR3.DAT" advise="1">
         <values>
           <value t="str">
             <val>04/02/2021</val>
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="ITSA4.MAX" advise="1">
-        <values>
-          <value>
-            <val>10.9</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="ITSA4.MIN" advise="1">
-        <values>
-          <value>
-            <val>10.75</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="ITSA4.NEG" advise="1">
-        <values>
-          <value>
-            <val>27834</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="ITSA4.QTT" advise="1">
-        <values>
-          <value>
-            <val>32973100</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="ITSA4.ULT" advise="1">
-        <values>
-          <value>
-            <val>10.82</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="ITSA4.VAR" advise="1">
-        <values>
-          <value>
-            <val>0</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="ITSA4.VOL" advise="1">
-        <values>
-          <value>
-            <val>356819263</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="ITUB4.ABE" advise="1">
-        <values>
-          <value>
-            <val>28.53</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="ITUB4.DAT" advise="1">
+      <ddeItem name="IRBR3.MAX" advise="1">
+        <values>
+          <value>
+            <val>7.34</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="IRBR3.MIN" advise="1">
+        <values>
+          <value>
+            <val>7.06</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="IRBR3.NEG" advise="1">
+        <values>
+          <value>
+            <val>17663</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="IRBR3.QTT" advise="1">
+        <values>
+          <value>
+            <val>26636400</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="IRBR3.ULT" advise="1">
+        <values>
+          <value>
+            <val>7.12</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="IRBR3.VAR" advise="1">
+        <values>
+          <value>
+            <val>-2.3319615912208493</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="IRBR3.VOL" advise="1">
+        <values>
+          <value>
+            <val>191645339</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="ITSA4.ABE" advise="1">
+        <values>
+          <value>
+            <val>10.85</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="ITSA4.DAT" advise="1">
         <values>
           <value t="str">
             <val>04/02/2021</val>
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="ITUB4.MAX" advise="1">
-        <values>
-          <value>
-            <val>28.56</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="ITUB4.MIN" advise="1">
-        <values>
-          <value>
-            <val>27.88</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="ITUB4.NEG" advise="1">
-        <values>
-          <value>
-            <val>76384</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="ITUB4.QTT" advise="1">
-        <values>
-          <value>
-            <val>65454600</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="ITUB4.ULT" advise="1">
-        <values>
-          <value>
-            <val>28.2</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="ITUB4.VAR" advise="1">
-        <values>
-          <value>
-            <val>-0.42372881355932557</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="ITUB4.VOL" advise="1">
-        <values>
-          <value>
-            <val>1849474458</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JBSS3.ABE" advise="1">
-        <values>
-          <value>
-            <val>24.88</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JBSS3.DAT" advise="1">
+      <ddeItem name="ITSA4.MAX" advise="1">
+        <values>
+          <value>
+            <val>10.9</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="ITSA4.MIN" advise="1">
+        <values>
+          <value>
+            <val>10.75</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="ITSA4.NEG" advise="1">
+        <values>
+          <value>
+            <val>27834</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="ITSA4.QTT" advise="1">
+        <values>
+          <value>
+            <val>32973100</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="ITSA4.ULT" advise="1">
+        <values>
+          <value>
+            <val>10.82</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="ITSA4.VAR" advise="1">
+        <values>
+          <value>
+            <val>0</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="ITSA4.VOL" advise="1">
+        <values>
+          <value>
+            <val>356819263</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="ITUB4.ABE" advise="1">
+        <values>
+          <value>
+            <val>28.53</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="ITUB4.DAT" advise="1">
         <values>
           <value t="str">
             <val>04/02/2021</val>
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="JBSS3.MAX" advise="1">
-        <values>
-          <value>
-            <val>25.5</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JBSS3.MIN" advise="1">
-        <values>
-          <value>
-            <val>24.68</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JBSS3.NEG" advise="1">
-        <values>
-          <value>
-            <val>37407</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JBSS3.QTT" advise="1">
-        <values>
-          <value>
-            <val>15451100</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JBSS3.ULT" advise="1">
-        <values>
-          <value>
-            <val>25.1</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JBSS3.VAR" advise="1">
-        <values>
-          <value>
-            <val>1.0873942811115713</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JBSS3.VOL" advise="1">
-        <values>
-          <value>
-            <val>388845861</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JHSF3.ABE" advise="1">
-        <values>
-          <value>
-            <val>7.91</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JHSF3.DAT" advise="1">
+      <ddeItem name="ITUB4.MAX" advise="1">
+        <values>
+          <value>
+            <val>28.56</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="ITUB4.MIN" advise="1">
+        <values>
+          <value>
+            <val>27.88</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="ITUB4.NEG" advise="1">
+        <values>
+          <value>
+            <val>76384</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="ITUB4.QTT" advise="1">
+        <values>
+          <value>
+            <val>65454600</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="ITUB4.ULT" advise="1">
+        <values>
+          <value>
+            <val>28.2</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="ITUB4.VAR" advise="1">
+        <values>
+          <value>
+            <val>-0.42372881355932557</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="ITUB4.VOL" advise="1">
+        <values>
+          <value>
+            <val>1849474458</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JBSS3.ABE" advise="1">
+        <values>
+          <value>
+            <val>24.88</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JBSS3.DAT" advise="1">
         <values>
           <value t="str">
             <val>04/02/2021</val>
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="JHSF3.MAX" advise="1">
-        <values>
-          <value>
-            <val>8.11</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JHSF3.MIN" advise="1">
-        <values>
-          <value>
-            <val>7.58</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JHSF3.NEG" advise="1">
-        <values>
-          <value>
-            <val>17849</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JHSF3.QTT" advise="1">
-        <values>
-          <value>
-            <val>14868200</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JHSF3.ULT" advise="1">
-        <values>
-          <value>
-            <val>7.63</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JHSF3.VAR" advise="1">
-        <values>
-          <value>
-            <val>-3.1725888324873095</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JHSF3.VOL" advise="1">
-        <values>
-          <value>
-            <val>116190773</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JPSA3.ABE" advise="1">
-        <values>
-          <value>
-            <val>25.14</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JPSA3.DAT" advise="1">
+      <ddeItem name="JBSS3.MAX" advise="1">
+        <values>
+          <value>
+            <val>25.5</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JBSS3.MIN" advise="1">
+        <values>
+          <value>
+            <val>24.68</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JBSS3.NEG" advise="1">
+        <values>
+          <value>
+            <val>37407</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JBSS3.QTT" advise="1">
+        <values>
+          <value>
+            <val>15451100</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JBSS3.ULT" advise="1">
+        <values>
+          <value>
+            <val>25.1</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JBSS3.VAR" advise="1">
+        <values>
+          <value>
+            <val>1.0873942811115713</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JBSS3.VOL" advise="1">
+        <values>
+          <value>
+            <val>388845861</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JHSF3.ABE" advise="1">
+        <values>
+          <value>
+            <val>7.91</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JHSF3.DAT" advise="1">
         <values>
           <value t="str">
             <val>04/02/2021</val>
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="JPSA3.MAX" advise="1">
-        <values>
-          <value>
-            <val>25.47</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JPSA3.MIN" advise="1">
-        <values>
-          <value>
-            <val>24.94</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JPSA3.NEG" advise="1">
-        <values>
-          <value>
-            <val>989</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JPSA3.QTT" advise="1">
-        <values>
-          <value>
-            <val>219000</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JPSA3.ULT" advise="1">
-        <values>
-          <value>
-            <val>25.19</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JPSA3.VAR" advise="1">
-        <values>
-          <value>
-            <val>0.27866242038216671</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="JPSA3.VOL" advise="1">
-        <values>
-          <value>
-            <val>5502291</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="KLBN11.ABE" advise="1">
-        <values>
-          <value>
-            <val>28.26</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="KLBN11.DAT" advise="1">
+      <ddeItem name="JHSF3.MAX" advise="1">
+        <values>
+          <value>
+            <val>8.11</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JHSF3.MIN" advise="1">
+        <values>
+          <value>
+            <val>7.58</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JHSF3.NEG" advise="1">
+        <values>
+          <value>
+            <val>17849</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JHSF3.QTT" advise="1">
+        <values>
+          <value>
+            <val>14868200</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JHSF3.ULT" advise="1">
+        <values>
+          <value>
+            <val>7.63</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JHSF3.VAR" advise="1">
+        <values>
+          <value>
+            <val>-3.1725888324873095</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JHSF3.VOL" advise="1">
+        <values>
+          <value>
+            <val>116190773</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JPSA3.ABE" advise="1">
+        <values>
+          <value>
+            <val>25.14</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JPSA3.DAT" advise="1">
         <values>
           <value t="str">
             <val>04/02/2021</val>
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="KLBN11.MAX" advise="1">
-        <values>
-          <value>
-            <val>28.6</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="KLBN11.MIN" advise="1">
-        <values>
-          <value>
-            <val>28</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="KLBN11.NEG" advise="1">
-        <values>
-          <value>
-            <val>13594</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="KLBN11.QTT" advise="1">
-        <values>
-          <value>
-            <val>3020600</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="KLBN11.ULT" advise="1">
-        <values>
-          <value>
-            <val>28.01</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="KLBN11.VAR" advise="1">
-        <values>
-          <value>
-            <val>-0.98974902792505337</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="KLBN11.VOL" advise="1">
-        <values>
-          <value>
-            <val>85173584</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LAME4.ABE" advise="1">
-        <values>
-          <value>
-            <val>25.27</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LAME4.DAT" advise="1">
+      <ddeItem name="JPSA3.MAX" advise="1">
+        <values>
+          <value>
+            <val>25.47</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JPSA3.MIN" advise="1">
+        <values>
+          <value>
+            <val>24.94</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JPSA3.NEG" advise="1">
+        <values>
+          <value>
+            <val>989</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JPSA3.QTT" advise="1">
+        <values>
+          <value>
+            <val>219000</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JPSA3.ULT" advise="1">
+        <values>
+          <value>
+            <val>25.19</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JPSA3.VAR" advise="1">
+        <values>
+          <value>
+            <val>0.27866242038216671</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="JPSA3.VOL" advise="1">
+        <values>
+          <value>
+            <val>5502291</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="KLBN11.ABE" advise="1">
+        <values>
+          <value>
+            <val>28.26</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="KLBN11.DAT" advise="1">
         <values>
           <value t="str">
             <val>04/02/2021</val>
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="LAME4.MAX" advise="1">
-        <values>
-          <value>
-            <val>25.42</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LAME4.MIN" advise="1">
-        <values>
-          <value>
-            <val>24.45</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LAME4.NEG" advise="1">
-        <values>
-          <value>
-            <val>16976</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LAME4.QTT" advise="1">
-        <values>
-          <value>
-            <val>8797300</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LAME4.ULT" advise="1">
-        <values>
-          <value>
-            <val>24.81</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LAME4.VAR" advise="1">
-        <values>
-          <value>
-            <val>-1.7425742574257477</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LAME4.VOL" advise="1">
-        <values>
-          <value>
-            <val>218215983</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LAVV3.ABE" advise="1">
-        <values>
-          <value>
-            <val>8.41</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LAVV3.DAT" advise="1">
+      <ddeItem name="KLBN11.MAX" advise="1">
+        <values>
+          <value>
+            <val>28.6</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="KLBN11.MIN" advise="1">
+        <values>
+          <value>
+            <val>28</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="KLBN11.NEG" advise="1">
+        <values>
+          <value>
+            <val>13594</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="KLBN11.QTT" advise="1">
+        <values>
+          <value>
+            <val>3020600</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="KLBN11.ULT" advise="1">
+        <values>
+          <value>
+            <val>28.01</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="KLBN11.VAR" advise="1">
+        <values>
+          <value>
+            <val>-0.98974902792505337</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="KLBN11.VOL" advise="1">
+        <values>
+          <value>
+            <val>85173584</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LAME4.ABE" advise="1">
+        <values>
+          <value>
+            <val>25.27</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LAME4.DAT" advise="1">
         <values>
           <value t="str">
             <val>04/02/2021</val>
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="LAVV3.MAX" advise="1">
-        <values>
-          <value>
-            <val>8.6300000000000008</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LAVV3.MIN" advise="1">
-        <values>
-          <value>
-            <val>8.32</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LAVV3.NEG" advise="1">
-        <values>
-          <value>
-            <val>4319</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LAVV3.QTT" advise="1">
-        <values>
-          <value>
-            <val>1113300</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LAVV3.ULT" advise="1">
-        <values>
-          <value>
-            <val>8.4499999999999993</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LAVV3.VAR" advise="1">
-        <values>
-          <value>
-            <val>0.23724792408065926</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LAVV3.VOL" advise="1">
-        <values>
-          <value>
-            <val>9412904</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LCAM3.ABE" advise="1">
-        <values>
-          <value>
-            <val>28.23</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LCAM3.DAT" advise="1">
+      <ddeItem name="LAME4.MAX" advise="1">
+        <values>
+          <value>
+            <val>25.42</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LAME4.MIN" advise="1">
+        <values>
+          <value>
+            <val>24.45</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LAME4.NEG" advise="1">
+        <values>
+          <value>
+            <val>16976</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LAME4.QTT" advise="1">
+        <values>
+          <value>
+            <val>8797300</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LAME4.ULT" advise="1">
+        <values>
+          <value>
+            <val>24.81</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LAME4.VAR" advise="1">
+        <values>
+          <value>
+            <val>-1.7425742574257477</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LAME4.VOL" advise="1">
+        <values>
+          <value>
+            <val>218215983</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LAVV3.ABE" advise="1">
+        <values>
+          <value>
+            <val>8.41</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LAVV3.DAT" advise="1">
         <values>
           <value t="str">
             <val>04/02/2021</val>
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="LCAM3.MAX" advise="1">
-        <values>
-          <value>
-            <val>28.48</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LCAM3.MIN" advise="1">
-        <values>
-          <value>
-            <val>28.04</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LCAM3.NEG" advise="1">
-        <values>
-          <value>
-            <val>7122</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LCAM3.QTT" advise="1">
-        <values>
-          <value>
-            <val>2006000</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LCAM3.ULT" advise="1">
-        <values>
-          <value>
-            <val>28.06</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LCAM3.VAR" advise="1">
-        <values>
-          <value>
-            <val>0</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LCAM3.VOL" advise="1">
-        <values>
-          <value>
-            <val>56549868</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LEVE3.ABE" advise="1">
-        <values>
-          <value>
-            <val>19.399999999999999</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LEVE3.DAT" advise="1">
+      <ddeItem name="LAVV3.MAX" advise="1">
+        <values>
+          <value>
+            <val>8.6300000000000008</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LAVV3.MIN" advise="1">
+        <values>
+          <value>
+            <val>8.32</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LAVV3.NEG" advise="1">
+        <values>
+          <value>
+            <val>4319</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LAVV3.QTT" advise="1">
+        <values>
+          <value>
+            <val>1113300</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LAVV3.ULT" advise="1">
+        <values>
+          <value>
+            <val>8.4499999999999993</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LAVV3.VAR" advise="1">
+        <values>
+          <value>
+            <val>0.23724792408065926</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LAVV3.VOL" advise="1">
+        <values>
+          <value>
+            <val>9412904</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LCAM3.ABE" advise="1">
+        <values>
+          <value>
+            <val>28.23</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LCAM3.DAT" advise="1">
         <values>
           <value t="str">
             <val>04/02/2021</val>
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="LEVE3.MAX" advise="1">
-        <values>
-          <value>
-            <val>19.68</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LEVE3.MIN" advise="1">
-        <values>
-          <value>
-            <val>19.100000000000001</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LEVE3.NEG" advise="1">
-        <values>
-          <value>
-            <val>1021</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LEVE3.QTT" advise="1">
-        <values>
-          <value>
-            <val>222200</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LEVE3.ULT" advise="1">
-        <values>
-          <value>
-            <val>19.37</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LEVE3.VAR" advise="1">
-        <values>
-          <value>
-            <val>-0.56468172484599299</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LEVE3.VOL" advise="1">
-        <values>
-          <value>
-            <val>4292342</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LIGT3.ABE" advise="1">
-        <values>
-          <value>
-            <val>21.68</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LIGT3.DAT" advise="1">
+      <ddeItem name="LCAM3.MAX" advise="1">
+        <values>
+          <value>
+            <val>28.48</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LCAM3.MIN" advise="1">
+        <values>
+          <value>
+            <val>28.04</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LCAM3.NEG" advise="1">
+        <values>
+          <value>
+            <val>7122</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LCAM3.QTT" advise="1">
+        <values>
+          <value>
+            <val>2006000</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LCAM3.ULT" advise="1">
+        <values>
+          <value>
+            <val>28.06</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LCAM3.VAR" advise="1">
+        <values>
+          <value>
+            <val>0</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LCAM3.VOL" advise="1">
+        <values>
+          <value>
+            <val>56549868</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LEVE3.ABE" advise="1">
+        <values>
+          <value>
+            <val>19.399999999999999</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LEVE3.DAT" advise="1">
         <values>
           <value t="str">
             <val>04/02/2021</val>
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="LIGT3.MAX" advise="1">
-        <values>
-          <value>
-            <val>21.96</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LIGT3.MIN" advise="1">
-        <values>
-          <value>
-            <val>21.41</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LIGT3.NEG" advise="1">
-        <values>
-          <value>
-            <val>11196</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LIGT3.QTT" advise="1">
-        <values>
-          <value>
-            <val>3716400</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LIGT3.ULT" advise="1">
-        <values>
-          <value>
-            <val>21.6</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LIGT3.VAR" advise="1">
-        <values>
-          <value>
-            <val>-0.46082949308754778</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LIGT3.VOL" advise="1">
-        <values>
-          <value>
-            <val>80552524</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LINX3.ABE" advise="1">
-        <values>
-          <value>
-            <val>37.880000000000003</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LINX3.DAT" advise="1">
+      <ddeItem name="LEVE3.MAX" advise="1">
+        <values>
+          <value>
+            <val>19.68</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LEVE3.MIN" advise="1">
+        <values>
+          <value>
+            <val>19.100000000000001</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LEVE3.NEG" advise="1">
+        <values>
+          <value>
+            <val>1021</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LEVE3.QTT" advise="1">
+        <values>
+          <value>
+            <val>222200</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LEVE3.ULT" advise="1">
+        <values>
+          <value>
+            <val>19.37</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LEVE3.VAR" advise="1">
+        <values>
+          <value>
+            <val>-0.56468172484599299</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LEVE3.VOL" advise="1">
+        <values>
+          <value>
+            <val>4292342</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LIGT3.ABE" advise="1">
+        <values>
+          <value>
+            <val>21.68</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LIGT3.DAT" advise="1">
         <values>
           <value t="str">
             <val>04/02/2021</val>
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="LINX3.MAX" advise="1">
-        <values>
-          <value>
-            <val>38.090000000000003</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LINX3.MIN" advise="1">
-        <values>
-          <value>
-            <val>37.75</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LINX3.NEG" advise="1">
-        <values>
-          <value>
-            <val>2205</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LINX3.QTT" advise="1">
-        <values>
-          <value>
-            <val>832800</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LINX3.ULT" advise="1">
-        <values>
-          <value>
-            <val>38.06</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LINX3.VAR" advise="1">
-        <values>
-          <value>
-            <val>0.36919831223628841</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LINX3.VOL" advise="1">
-        <values>
-          <value>
-            <val>31642203</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LJQQ3.ABE" advise="1">
-        <values>
-          <value>
-            <val>20</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="LJQQ3.DAT" advise="1">
+      <ddeItem name="LIGT3.MAX" advise="1">
+        <values>
+          <value>
+            <val>21.96</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LIGT3.MIN" advise="1">
+        <values>
+          <value>
+            <val>21.41</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LIGT3.NEG" advise="1">
+        <values>
+          <value>
+            <val>11196</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LIGT3.QTT" advise="1">
+        <values>
+          <value>
+            <val>3716400</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LIGT3.ULT" advise="1">
+        <values>
+          <value>
+            <val>21.6</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LIGT3.VAR" advise="1">
+        <values>
+          <value>
+            <val>-0.46082949308754778</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LIGT3.VOL" advise="1">
+        <values>
+          <value>
+            <val>80552524</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LINX3.ABE" advise="1">
+        <values>
+          <value>
+            <val>37.880000000000003</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LINX3.DAT" advise="1">
         <values>
           <value t="str">
             <val>04/02/2021</val>
           </value>
         </values>
       </ddeItem>
+      <ddeItem name="LINX3.MAX" advise="1">
+        <values>
+          <value>
+            <val>38.090000000000003</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LINX3.MIN" advise="1">
+        <values>
+          <value>
+            <val>37.75</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LINX3.NEG" advise="1">
+        <values>
+          <value>
+            <val>2205</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LINX3.QTT" advise="1">
+        <values>
+          <value>
+            <val>832800</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LINX3.ULT" advise="1">
+        <values>
+          <value>
+            <val>38.06</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LINX3.VAR" advise="1">
+        <values>
+          <value>
+            <val>0.36919831223628841</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LINX3.VOL" advise="1">
+        <values>
+          <value>
+            <val>31642203</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LJQQ3.ABE" advise="1">
+        <values>
+          <value>
+            <val>20</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="LJQQ3.DAT" advise="1">
+        <values>
+          <value t="str">
+            <val>04/02/2021</val>
+          </value>
+        </values>
+      </ddeItem>
       <ddeItem name="LJQQ3.MAX" advise="1">
         <values>
           <value>
@@ -7360,35 +7429,35 @@
       <ddeItem name="LJQQ3.NEG" advise="1">
         <values>
           <value>
-            <val>7631</val>
+            <val>7965</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="LJQQ3.QTT" advise="1">
         <values>
           <value>
-            <val>3187600</val>
+            <val>3319700</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="LJQQ3.ULT" advise="1">
         <values>
           <value>
-            <val>20.170000000000002</val>
+            <val>20.07</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="LJQQ3.VAR" advise="1">
         <values>
           <value>
-            <val>1.6120906801007571</val>
+            <val>1.1083123425692638</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="LJQQ3.VOL" advise="1">
         <values>
           <value>
-            <val>64281201</val>
+            <val>66934106</val>
           </value>
         </values>
       </ddeItem>
@@ -12735,10 +12804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C323AF2-A28A-46CA-A879-43D8EA08965E}">
-  <dimension ref="A1:K179"/>
+  <dimension ref="A1:K180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12789,7 +12858,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" t="str" cm="1">
         <f t="array" ref="B2">[1]!AALR3.DAT</f>
@@ -12816,7 +12885,7 @@
         <v>-4.6086956521739078</v>
       </c>
       <c r="H2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2">[1]!AALR3.NEG</f>
@@ -12833,7 +12902,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" t="str" cm="1">
         <f t="array" ref="B3">[1]!ABCB4.DAT</f>
@@ -12860,7 +12929,7 @@
         <v>-0.50314465408805076</v>
       </c>
       <c r="H3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" ref="I3">[1]!ABCB4.NEG</f>
@@ -12877,7 +12946,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" t="str" cm="1">
         <f t="array" ref="B4">[1]!ABEV3.DAT</f>
@@ -12904,7 +12973,7 @@
         <v>-0.51020408163265352</v>
       </c>
       <c r="H4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I4" cm="1">
         <f t="array" ref="I4">[1]!ABEV3.NEG</f>
@@ -12965,7 +13034,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6" t="str" cm="1">
         <f t="array" ref="B6">[1]!AGRO3.DAT</f>
@@ -12992,7 +13061,7 @@
         <v>-3.807615230460919</v>
       </c>
       <c r="H6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I6" cm="1">
         <f t="array" ref="I6">[1]!AGRO3.NEG</f>
@@ -13053,7 +13122,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B8" t="str" cm="1">
         <f t="array" ref="B8">[1]!ALSO3.DAT</f>
@@ -13080,7 +13149,7 @@
         <v>-0.10334137099552579</v>
       </c>
       <c r="H8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">[1]!ALSO3.NEG</f>
@@ -13097,7 +13166,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" t="str" cm="1">
         <f t="array" ref="B9">[1]!AMAR3.DAT</f>
@@ -13124,7 +13193,7 @@
         <v>-1.2638230647709332</v>
       </c>
       <c r="H9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">[1]!AMAR3.NEG</f>
@@ -13185,7 +13254,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" t="str" cm="1">
         <f t="array" ref="B11">[1]!ANIM3.DAT</f>
@@ -13212,7 +13281,7 @@
         <v>-1.1339898537749791</v>
       </c>
       <c r="H11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">[1]!ANIM3.NEG</f>
@@ -13432,7 +13501,7 @@
         <v>3.0099009900990161</v>
       </c>
       <c r="H16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">[1]!BBDC4.NEG</f>
@@ -13449,7 +13518,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B17" t="str" cm="1">
         <f t="array" ref="B17">[1]!BBRK3.DAT</f>
@@ -13476,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">[1]!BBRK3.NEG</f>
@@ -13537,7 +13606,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B19" t="str" cm="1">
         <f t="array" ref="B19">[1]!BEEF3.DAT</f>
@@ -13564,7 +13633,7 @@
         <v>-1.3684210526315872</v>
       </c>
       <c r="H19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">[1]!BEEF3.NEG</f>
@@ -13625,7 +13694,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B21" t="str" cm="1">
         <f t="array" ref="B21">[1]!BKBR3.DAT</f>
@@ -13652,7 +13721,7 @@
         <v>1.0070493454179219</v>
       </c>
       <c r="H21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">[1]!BKBR3.NEG</f>
@@ -13757,7 +13826,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B24" t="str" cm="1">
         <f t="array" ref="B24">[1]!BOVA11.DAT</f>
@@ -13784,7 +13853,7 @@
         <v>-0.54663774403470322</v>
       </c>
       <c r="H24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">[1]!BOVA11.NEG</f>
@@ -13889,7 +13958,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B27" t="str" cm="1">
         <f t="array" ref="B27">[1]!BRDT3.DAT</f>
@@ -13916,7 +13985,7 @@
         <v>-0.95693779904305731</v>
       </c>
       <c r="H27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">[1]!BRDT3.NEG</f>
@@ -13933,7 +14002,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B28" t="str" cm="1">
         <f t="array" ref="B28">[1]!BRFS3.DAT</f>
@@ -13960,7 +14029,7 @@
         <v>-0.79751883030571424</v>
       </c>
       <c r="H28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">[1]!BRFS3.NEG</f>
@@ -13977,7 +14046,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B29" t="str" cm="1">
         <f t="array" ref="B29">[1]!BRKM5.DAT</f>
@@ -14004,7 +14073,7 @@
         <v>2.9095947350190503</v>
       </c>
       <c r="H29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">[1]!BRKM5.NEG</f>
@@ -14021,7 +14090,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B30" t="str" cm="1">
         <f t="array" ref="B30">[1]!BRML3.DAT</f>
@@ -14048,7 +14117,7 @@
         <v>-2.2682445759368877</v>
       </c>
       <c r="H30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">[1]!BRML3.NEG</f>
@@ -14065,7 +14134,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B31" t="str" cm="1">
         <f t="array" ref="B31">[1]!BRPR3.DAT</f>
@@ -14092,7 +14161,7 @@
         <v>0.55126791620726501</v>
       </c>
       <c r="H31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">[1]!BRPR3.NEG</f>
@@ -14197,7 +14266,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B34" t="str" cm="1">
         <f t="array" ref="B34">[1]!CAML3.DAT</f>
@@ -14224,7 +14293,7 @@
         <v>-1.1383537653239999</v>
       </c>
       <c r="H34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">[1]!CAML3.NEG</f>
@@ -14373,7 +14442,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B38" t="str" cm="1">
         <f t="array" ref="B38">[1]!CEAB3.DAT</f>
@@ -14400,7 +14469,7 @@
         <v>-0.1615508885298978</v>
       </c>
       <c r="H38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">[1]!CEAB3.NEG</f>
@@ -14417,7 +14486,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B39" t="str" cm="1">
         <f t="array" ref="B39">[1]!CESP6.DAT</f>
@@ -14444,7 +14513,7 @@
         <v>0.55719436250409093</v>
       </c>
       <c r="H39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">[1]!CESP6.NEG</f>
@@ -14461,7 +14530,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B40" t="str" cm="1">
         <f t="array" ref="B40">[1]!CIEL3.DAT</f>
@@ -14488,7 +14557,7 @@
         <v>-1.6666666666666734</v>
       </c>
       <c r="H40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">[1]!CIEL3.NEG</f>
@@ -14593,7 +14662,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B43" t="str" cm="1">
         <f t="array" ref="B43">[1]!COGN3.DAT</f>
@@ -14620,7 +14689,7 @@
         <v>-2.5316455696202551</v>
       </c>
       <c r="H43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43">[1]!COGN3.NEG</f>
@@ -14637,7 +14706,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B44" t="str" cm="1">
         <f t="array" ref="B44">[1]!CPFE3.DAT</f>
@@ -14664,7 +14733,7 @@
         <v>1.2530562347188376</v>
       </c>
       <c r="H44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">[1]!CPFE3.NEG</f>
@@ -14681,7 +14750,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B45" t="str" cm="1">
         <f t="array" ref="B45">[1]!CPLE6.DAT</f>
@@ -14708,7 +14777,7 @@
         <v>1.9839466908980801</v>
       </c>
       <c r="H45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">[1]!CPLE6.NEG</f>
@@ -14989,7 +15058,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B52" t="str" cm="1">
         <f t="array" ref="B52">[1]!DMVF3.DAT</f>
@@ -14997,7 +15066,7 @@
       </c>
       <c r="C52" cm="1">
         <f t="array" ref="C52">[1]!DMVF3.ULT</f>
-        <v>11.79</v>
+        <v>11.73</v>
       </c>
       <c r="D52" cm="1">
         <f t="array" ref="D52">[1]!DMVF3.ABE</f>
@@ -15013,22 +15082,22 @@
       </c>
       <c r="G52" cm="1">
         <f t="array" ref="G52">[1]!DMVF3.VAR</f>
-        <v>-0.75757575757577134</v>
+        <v>-1.2626262626262656</v>
       </c>
       <c r="H52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52">[1]!DMVF3.NEG</f>
-        <v>351</v>
+        <v>411</v>
       </c>
       <c r="J52" cm="1">
         <f t="array" ref="J52">[1]!DMVF3.QTT</f>
-        <v>119300</v>
+        <v>135200</v>
       </c>
       <c r="K52" cm="1">
         <f t="array" ref="K52">[1]!DMVF3.VOL</f>
-        <v>1416760</v>
+        <v>1604112</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -15121,7 +15190,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B55" t="str" cm="1">
         <f t="array" ref="B55">[1]!EGIE3.DAT</f>
@@ -15148,7 +15217,7 @@
         <v>0.266666666666661</v>
       </c>
       <c r="H55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55">[1]!EGIE3.NEG</f>
@@ -15192,7 +15261,7 @@
         <v>-1.4360291762561506</v>
       </c>
       <c r="H56" t="s">
-        <v>69</v>
+        <v>366</v>
       </c>
       <c r="I56" cm="1">
         <f t="array" ref="I56">[1]!ELET3.NEG</f>
@@ -15209,7 +15278,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B57" t="str" cm="1">
         <f t="array" ref="B57">[1]!EMBR3.DAT</f>
@@ -15236,7 +15305,7 @@
         <v>-1.9709543568464862</v>
       </c>
       <c r="H57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I57" cm="1">
         <f t="array" ref="I57">[1]!EMBR3.NEG</f>
@@ -15253,7 +15322,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B58" t="str" cm="1">
         <f t="array" ref="B58">[1]!ENAT3.DAT</f>
@@ -15280,7 +15349,7 @@
         <v>-1.1428571428571475</v>
       </c>
       <c r="H58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I58" cm="1">
         <f t="array" ref="I58">[1]!ENAT3.NEG</f>
@@ -15297,7 +15366,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B59" t="str" cm="1">
         <f t="array" ref="B59">[1]!ENBR3.DAT</f>
@@ -15324,7 +15393,7 @@
         <v>-5.0226017076853653E-2</v>
       </c>
       <c r="H59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I59" cm="1">
         <f t="array" ref="I59">[1]!ENBR3.NEG</f>
@@ -15341,7 +15410,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" t="str" cm="1">
         <f t="array" ref="B60">[1]!ENEV3.DAT</f>
@@ -15368,7 +15437,7 @@
         <v>-0.20525451559933153</v>
       </c>
       <c r="H60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I60" cm="1">
         <f t="array" ref="I60">[1]!ENEV3.NEG</f>
@@ -15385,7 +15454,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B61" t="str" cm="1">
         <f t="array" ref="B61">[1]!ENGI11.DAT</f>
@@ -15412,7 +15481,7 @@
         <v>-2.3846153846153886</v>
       </c>
       <c r="H61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I61" cm="1">
         <f t="array" ref="I61">[1]!ENGI11.NEG</f>
@@ -15429,7 +15498,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" t="str" cm="1">
         <f t="array" ref="B62">[1]!ENJU3.DAT</f>
@@ -15456,7 +15525,7 @@
         <v>9.9999999999999929</v>
       </c>
       <c r="H62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I62" cm="1">
         <f t="array" ref="I62">[1]!ENJU3.NEG</f>
@@ -15473,7 +15542,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B63" t="str" cm="1">
         <f t="array" ref="B63">[1]!EQTL3.DAT</f>
@@ -15500,7 +15569,7 @@
         <v>0.34423407917384619</v>
       </c>
       <c r="H63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">[1]!EQTL3.NEG</f>
@@ -15517,7 +15586,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B64" t="str" cm="1">
         <f t="array" ref="B64">[1]!ETER3.DAT</f>
@@ -15544,7 +15613,7 @@
         <v>-2.1886792452830126</v>
       </c>
       <c r="H64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I64" cm="1">
         <f t="array" ref="I64">[1]!ETER3.NEG</f>
@@ -15561,7 +15630,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B65" t="str" cm="1">
         <f t="array" ref="B65">[1]!EVEN3.DAT</f>
@@ -15588,7 +15657,7 @@
         <v>-0.57755775577556534</v>
       </c>
       <c r="H65" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I65" cm="1">
         <f t="array" ref="I65">[1]!EVEN3.NEG</f>
@@ -15605,7 +15674,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" t="str" cm="1">
         <f t="array" ref="B66">[1]!EZTC3.DAT</f>
@@ -15632,7 +15701,7 @@
         <v>-1.3527309851965317</v>
       </c>
       <c r="H66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">[1]!EZTC3.NEG</f>
@@ -15649,7 +15718,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B67" t="str" cm="1">
         <f t="array" ref="B67">[1]!FESA4.DAT</f>
@@ -15676,7 +15745,7 @@
         <v>2.6886792452830202</v>
       </c>
       <c r="H67" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">[1]!FESA4.NEG</f>
@@ -15693,7 +15762,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B68" t="str" cm="1">
         <f t="array" ref="B68">[1]!FLRY3.DAT</f>
@@ -15720,7 +15789,7 @@
         <v>-1.3761467889908277</v>
       </c>
       <c r="H68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I68" cm="1">
         <f t="array" ref="I68">[1]!FLRY3.NEG</f>
@@ -15737,7 +15806,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B69" t="str" cm="1">
         <f t="array" ref="B69">[1]!GFSA3.DAT</f>
@@ -15764,7 +15833,7 @@
         <v>-0.55350553505535516</v>
       </c>
       <c r="H69" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I69" cm="1">
         <f t="array" ref="I69">[1]!GFSA3.NEG</f>
@@ -15781,7 +15850,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B70" t="str" cm="1">
         <f t="array" ref="B70">[1]!GGBR4.DAT</f>
@@ -15808,7 +15877,7 @@
         <v>-1.4449638759031018</v>
       </c>
       <c r="H70" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I70" cm="1">
         <f t="array" ref="I70">[1]!GGBR4.NEG</f>
@@ -15825,7 +15894,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B71" t="str" cm="1">
         <f t="array" ref="B71">[1]!GMAT3.DAT</f>
@@ -15852,7 +15921,7 @@
         <v>2.6221692491060651</v>
       </c>
       <c r="H71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I71" cm="1">
         <f t="array" ref="I71">[1]!GMAT3.NEG</f>
@@ -15869,7 +15938,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B72" t="str" cm="1">
         <f t="array" ref="B72">[1]!GNDI3.DAT</f>
@@ -15896,7 +15965,7 @@
         <v>-0.41013021634369495</v>
       </c>
       <c r="H72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I72" cm="1">
         <f t="array" ref="I72">[1]!GNDI3.NEG</f>
@@ -15913,7 +15982,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B73" t="str" cm="1">
         <f t="array" ref="B73">[1]!GOAU4.DAT</f>
@@ -15940,7 +16009,7 @@
         <v>-1.8484288354898435</v>
       </c>
       <c r="H73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I73" cm="1">
         <f t="array" ref="I73">[1]!GOAU4.NEG</f>
@@ -15957,7 +16026,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B74" t="str" cm="1">
         <f t="array" ref="B74">[1]!GOLL4.DAT</f>
@@ -15984,7 +16053,7 @@
         <v>0.92000000000000171</v>
       </c>
       <c r="H74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I74" cm="1">
         <f t="array" ref="I74">[1]!GOLL4.NEG</f>
@@ -16001,7 +16070,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B75" t="str" cm="1">
         <f t="array" ref="B75">[1]!GRND3.DAT</f>
@@ -16028,7 +16097,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I75" cm="1">
         <f t="array" ref="I75">[1]!GRND3.NEG</f>
@@ -16045,7 +16114,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B76" t="str" cm="1">
         <f t="array" ref="B76">[1]!GUAR3.DAT</f>
@@ -16072,7 +16141,7 @@
         <v>-6.596306068601443E-2</v>
       </c>
       <c r="H76" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I76" cm="1">
         <f t="array" ref="I76">[1]!GUAR3.NEG</f>
@@ -16089,7 +16158,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B77" t="str" cm="1">
         <f t="array" ref="B77">[1]!HAPV3.DAT</f>
@@ -16116,7 +16185,7 @@
         <v>0.73487846240813448</v>
       </c>
       <c r="H77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I77" cm="1">
         <f t="array" ref="I77">[1]!HAPV3.NEG</f>
@@ -16133,7 +16202,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B78" t="str" cm="1">
         <f t="array" ref="B78">[1]!HBOR3.DAT</f>
@@ -16160,7 +16229,7 @@
         <v>-0.83179297597042379</v>
       </c>
       <c r="H78" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I78" cm="1">
         <f t="array" ref="I78">[1]!HBOR3.NEG</f>
@@ -16177,7 +16246,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B79" t="str" cm="1">
         <f t="array" ref="B79">[1]!HBSA3.DAT</f>
@@ -16204,7 +16273,7 @@
         <v>-0.89285714285713702</v>
       </c>
       <c r="H79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I79" cm="1">
         <f t="array" ref="I79">[1]!HBSA3.NEG</f>
@@ -16221,7 +16290,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B80" t="str" cm="1">
         <f t="array" ref="B80">[1]!HGTX3.DAT</f>
@@ -16248,7 +16317,7 @@
         <v>-0.28011204481793112</v>
       </c>
       <c r="H80" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I80" cm="1">
         <f t="array" ref="I80">[1]!HGTX3.NEG</f>
@@ -16265,7 +16334,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B81" t="str" cm="1">
         <f t="array" ref="B81">[1]!HYPE3.DAT</f>
@@ -16292,7 +16361,7 @@
         <v>0.57540884312537166</v>
       </c>
       <c r="H81" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I81" cm="1">
         <f t="array" ref="I81">[1]!HYPE3.NEG</f>
@@ -16309,7 +16378,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B82" t="str" cm="1">
         <f t="array" ref="B82">[1]!IBOV.DAT</f>
@@ -16336,7 +16405,7 @@
         <v>-0.38747219454762072</v>
       </c>
       <c r="H82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I82" cm="1">
         <f t="array" ref="I82">[1]!IBOV.NEG</f>
@@ -16353,7 +16422,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B83" t="str" cm="1">
         <f t="array" ref="B83">[1]!IGTA3.DAT</f>
@@ -16380,7 +16449,7 @@
         <v>-2.0884858477603681</v>
       </c>
       <c r="H83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I83" cm="1">
         <f t="array" ref="I83">[1]!IGTA3.NEG</f>
@@ -16397,7 +16466,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B84" t="str" cm="1">
         <f t="array" ref="B84">[1]!IRBR3.DAT</f>
@@ -16424,7 +16493,7 @@
         <v>-2.3319615912208493</v>
       </c>
       <c r="H84" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I84" cm="1">
         <f t="array" ref="I84">[1]!IRBR3.NEG</f>
@@ -16441,7 +16510,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B85" t="str" cm="1">
         <f t="array" ref="B85">[1]!ITSA4.DAT</f>
@@ -16468,7 +16537,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I85" cm="1">
         <f t="array" ref="I85">[1]!ITSA4.NEG</f>
@@ -16485,7 +16554,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B86" t="str" cm="1">
         <f t="array" ref="B86">[1]!ITUB4.DAT</f>
@@ -16512,7 +16581,7 @@
         <v>-0.42372881355932557</v>
       </c>
       <c r="H86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I86" cm="1">
         <f t="array" ref="I86">[1]!ITUB4.NEG</f>
@@ -16529,7 +16598,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" t="str" cm="1">
         <f t="array" ref="B87">[1]!JBSS3.DAT</f>
@@ -16556,7 +16625,7 @@
         <v>1.0873942811115713</v>
       </c>
       <c r="H87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I87" cm="1">
         <f t="array" ref="I87">[1]!JBSS3.NEG</f>
@@ -16573,7 +16642,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88" t="str" cm="1">
         <f t="array" ref="B88">[1]!JHSF3.DAT</f>
@@ -16600,7 +16669,7 @@
         <v>-3.1725888324873095</v>
       </c>
       <c r="H88" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I88" cm="1">
         <f t="array" ref="I88">[1]!JHSF3.NEG</f>
@@ -16617,7 +16686,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B89" t="str" cm="1">
         <f t="array" ref="B89">[1]!JPSA3.DAT</f>
@@ -16644,7 +16713,7 @@
         <v>0.27866242038216671</v>
       </c>
       <c r="H89" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I89" cm="1">
         <f t="array" ref="I89">[1]!JPSA3.NEG</f>
@@ -16661,7 +16730,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B90" t="str" cm="1">
         <f t="array" ref="B90">[1]!KLBN11.DAT</f>
@@ -16688,7 +16757,7 @@
         <v>-0.98974902792505337</v>
       </c>
       <c r="H90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I90" cm="1">
         <f t="array" ref="I90">[1]!KLBN11.NEG</f>
@@ -16705,7 +16774,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B91" t="str" cm="1">
         <f t="array" ref="B91">[1]!LAME4.DAT</f>
@@ -16732,7 +16801,7 @@
         <v>-1.7425742574257477</v>
       </c>
       <c r="H91" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I91" cm="1">
         <f t="array" ref="I91">[1]!LAME4.NEG</f>
@@ -16749,7 +16818,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B92" t="str" cm="1">
         <f t="array" ref="B92">[1]!LAVV3.DAT</f>
@@ -16776,7 +16845,7 @@
         <v>0.23724792408065926</v>
       </c>
       <c r="H92" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I92" cm="1">
         <f t="array" ref="I92">[1]!LAVV3.NEG</f>
@@ -16793,7 +16862,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B93" t="str" cm="1">
         <f t="array" ref="B93">[1]!LCAM3.DAT</f>
@@ -16820,7 +16889,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I93" cm="1">
         <f t="array" ref="I93">[1]!LCAM3.NEG</f>
@@ -16837,7 +16906,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B94" t="str" cm="1">
         <f t="array" ref="B94">[1]!LEVE3.DAT</f>
@@ -16864,7 +16933,7 @@
         <v>-0.56468172484599299</v>
       </c>
       <c r="H94" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I94" cm="1">
         <f t="array" ref="I94">[1]!LEVE3.NEG</f>
@@ -16881,7 +16950,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B95" t="str" cm="1">
         <f t="array" ref="B95">[1]!LIGT3.DAT</f>
@@ -16908,7 +16977,7 @@
         <v>-0.46082949308754778</v>
       </c>
       <c r="H95" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I95" cm="1">
         <f t="array" ref="I95">[1]!LIGT3.NEG</f>
@@ -16925,7 +16994,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B96" t="str" cm="1">
         <f t="array" ref="B96">[1]!LINX3.DAT</f>
@@ -16952,7 +17021,7 @@
         <v>0.36919831223628841</v>
       </c>
       <c r="H96" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I96" cm="1">
         <f t="array" ref="I96">[1]!LINX3.NEG</f>
@@ -16969,7 +17038,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B97" t="str" cm="1">
         <f t="array" ref="B97">[1]!LJQQ3.DAT</f>
@@ -16977,7 +17046,7 @@
       </c>
       <c r="C97" cm="1">
         <f t="array" ref="C97">[1]!LJQQ3.ULT</f>
-        <v>20.170000000000002</v>
+        <v>20.07</v>
       </c>
       <c r="D97" cm="1">
         <f t="array" ref="D97">[1]!LJQQ3.ABE</f>
@@ -16993,27 +17062,27 @@
       </c>
       <c r="G97" cm="1">
         <f t="array" ref="G97">[1]!LJQQ3.VAR</f>
-        <v>1.6120906801007571</v>
+        <v>1.1083123425692638</v>
       </c>
       <c r="H97" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I97" cm="1">
         <f t="array" ref="I97">[1]!LJQQ3.NEG</f>
-        <v>7631</v>
+        <v>7965</v>
       </c>
       <c r="J97" cm="1">
         <f t="array" ref="J97">[1]!LJQQ3.QTT</f>
-        <v>3187600</v>
+        <v>3319700</v>
       </c>
       <c r="K97" cm="1">
         <f t="array" ref="K97">[1]!LJQQ3.VOL</f>
-        <v>64281201</v>
+        <v>66934106</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B98" t="str" cm="1">
         <f t="array" ref="B98">[1]!LOGG3.DAT</f>
@@ -17040,7 +17109,7 @@
         <v>0.59577003276736029</v>
       </c>
       <c r="H98" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I98" cm="1">
         <f t="array" ref="I98">[1]!LOGG3.NEG</f>
@@ -17057,7 +17126,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B99" t="str" cm="1">
         <f t="array" ref="B99">[1]!LOGN3.DAT</f>
@@ -17084,7 +17153,7 @@
         <v>-4.0767386091127085</v>
       </c>
       <c r="H99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I99" cm="1">
         <f t="array" ref="I99">[1]!LOGN3.NEG</f>
@@ -17101,7 +17170,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B100" t="str" cm="1">
         <f t="array" ref="B100">[1]!LREN3.DAT</f>
@@ -17128,7 +17197,7 @@
         <v>-1.1950286806883363</v>
       </c>
       <c r="H100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I100" cm="1">
         <f t="array" ref="I100">[1]!LREN3.NEG</f>
@@ -17145,7 +17214,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B101" t="str" cm="1">
         <f t="array" ref="B101">[1]!LWSA3.DAT</f>
@@ -17172,7 +17241,7 @@
         <v>4.6209386281588491</v>
       </c>
       <c r="H101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I101" cm="1">
         <f t="array" ref="I101">[1]!LWSA3.NEG</f>
@@ -17189,7 +17258,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B102" t="str" cm="1">
         <f t="array" ref="B102">[1]!MDIA3.DAT</f>
@@ -17216,7 +17285,7 @@
         <v>-2.4505183788878342</v>
       </c>
       <c r="H102" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I102" cm="1">
         <f t="array" ref="I102">[1]!MDIA3.NEG</f>
@@ -17233,7 +17302,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B103" t="str" cm="1">
         <f t="array" ref="B103">[1]!MDNE3.DAT</f>
@@ -17260,7 +17329,7 @@
         <v>-0.39215686274508971</v>
       </c>
       <c r="H103" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I103" cm="1">
         <f t="array" ref="I103">[1]!MDNE3.NEG</f>
@@ -17277,7 +17346,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B104" t="str" cm="1">
         <f t="array" ref="B104">[1]!MELK3.DAT</f>
@@ -17304,7 +17373,7 @@
         <v>2.3291925465838426</v>
       </c>
       <c r="H104" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I104" cm="1">
         <f t="array" ref="I104">[1]!MELK3.NEG</f>
@@ -17321,7 +17390,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B105" t="str" cm="1">
         <f t="array" ref="B105">[1]!MGLU3.DAT</f>
@@ -17348,7 +17417,7 @@
         <v>-1.3255360623781671</v>
       </c>
       <c r="H105" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I105" cm="1">
         <f t="array" ref="I105">[1]!MGLU3.NEG</f>
@@ -17365,7 +17434,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B106" t="str" cm="1">
         <f t="array" ref="B106">[1]!MILS3.DAT</f>
@@ -17392,7 +17461,7 @@
         <v>-0.48387096774193949</v>
       </c>
       <c r="H106" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I106" cm="1">
         <f t="array" ref="I106">[1]!MILS3.NEG</f>
@@ -17409,7 +17478,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B107" t="str" cm="1">
         <f t="array" ref="B107">[1]!MOVI3.DAT</f>
@@ -17436,7 +17505,7 @@
         <v>-0.65458207452164663</v>
       </c>
       <c r="H107" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I107" cm="1">
         <f t="array" ref="I107">[1]!MOVI3.NEG</f>
@@ -17453,7 +17522,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B108" t="str" cm="1">
         <f t="array" ref="B108">[1]!MRFG3.DAT</f>
@@ -17480,7 +17549,7 @@
         <v>1.4925373134328292</v>
       </c>
       <c r="H108" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I108" cm="1">
         <f t="array" ref="I108">[1]!MRFG3.NEG</f>
@@ -17497,7 +17566,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B109" t="str" cm="1">
         <f t="array" ref="B109">[1]!MRVE3.DAT</f>
@@ -17524,7 +17593,7 @@
         <v>-1.0891089108910834</v>
       </c>
       <c r="H109" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I109" cm="1">
         <f t="array" ref="I109">[1]!MRVE3.NEG</f>
@@ -17541,7 +17610,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B110" t="str" cm="1">
         <f t="array" ref="B110">[1]!MTRE3.DAT</f>
@@ -17568,7 +17637,7 @@
         <v>-0.51413881748072021</v>
       </c>
       <c r="H110" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I110" cm="1">
         <f t="array" ref="I110">[1]!MTRE3.NEG</f>
@@ -17585,7 +17654,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B111" t="str" cm="1">
         <f t="array" ref="B111">[1]!MULT3.DAT</f>
@@ -17612,7 +17681,7 @@
         <v>-1.6444444444444488</v>
       </c>
       <c r="H111" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I111" cm="1">
         <f t="array" ref="I111">[1]!MULT3.NEG</f>
@@ -17629,7 +17698,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B112" t="str" cm="1">
         <f t="array" ref="B112">[1]!MYPK3.DAT</f>
@@ -17656,7 +17725,7 @@
         <v>-1.2543554006968622</v>
       </c>
       <c r="H112" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I112" cm="1">
         <f t="array" ref="I112">[1]!MYPK3.NEG</f>
@@ -17673,7 +17742,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B113" t="str" cm="1">
         <f t="array" ref="B113">[1]!NEOE3.DAT</f>
@@ -17700,7 +17769,7 @@
         <v>0.10526315789473459</v>
       </c>
       <c r="H113" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I113" cm="1">
         <f t="array" ref="I113">[1]!NEOE3.NEG</f>
@@ -17717,7 +17786,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B114" t="str" cm="1">
         <f t="array" ref="B114">[1]!NGRD3.DAT</f>
@@ -17744,7 +17813,7 @@
         <v>-1.6910935738444035</v>
       </c>
       <c r="H114" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I114" cm="1">
         <f t="array" ref="I114">[1]!NGRD3.NEG</f>
@@ -17761,7 +17830,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B115" t="str" cm="1">
         <f t="array" ref="B115">[1]!NTCO3.DAT</f>
@@ -17788,7 +17857,7 @@
         <v>0.81999999999999318</v>
       </c>
       <c r="H115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I115" cm="1">
         <f t="array" ref="I115">[1]!NTCO3.NEG</f>
@@ -17805,7 +17874,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B116" t="str" cm="1">
         <f t="array" ref="B116">[1]!ODPV3.DAT</f>
@@ -17832,7 +17901,7 @@
         <v>-0.98591549295773806</v>
       </c>
       <c r="H116" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I116" cm="1">
         <f t="array" ref="I116">[1]!ODPV3.NEG</f>
@@ -17849,7 +17918,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B117" t="str" cm="1">
         <f t="array" ref="B117">[1]!OIBR3.DAT</f>
@@ -17876,7 +17945,7 @@
         <v>-1.3698630136986212</v>
       </c>
       <c r="H117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I117" cm="1">
         <f t="array" ref="I117">[1]!OIBR3.NEG</f>
@@ -17893,7 +17962,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B118" t="str" cm="1">
         <f t="array" ref="B118">[1]!OMGE3.DAT</f>
@@ -17920,7 +17989,7 @@
         <v>1.3398294762484879</v>
       </c>
       <c r="H118" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I118" cm="1">
         <f t="array" ref="I118">[1]!OMGE3.NEG</f>
@@ -17937,7 +18006,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B119" t="str" cm="1">
         <f t="array" ref="B119">[1]!PARD3.DAT</f>
@@ -17964,7 +18033,7 @@
         <v>-2.3681858802502127</v>
       </c>
       <c r="H119" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I119" cm="1">
         <f t="array" ref="I119">[1]!PARD3.NEG</f>
@@ -17981,7 +18050,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B120" t="str" cm="1">
         <f t="array" ref="B120">[1]!PCAR3.DAT</f>
@@ -18008,7 +18077,7 @@
         <v>2.1097560975609806</v>
       </c>
       <c r="H120" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I120" cm="1">
         <f t="array" ref="I120">[1]!PCAR3.NEG</f>
@@ -18025,7 +18094,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B121" t="str" cm="1">
         <f t="array" ref="B121">[1]!PETR4.DAT</f>
@@ -18052,7 +18121,7 @@
         <v>-0.10398613518197966</v>
       </c>
       <c r="H121" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I121" cm="1">
         <f t="array" ref="I121">[1]!PETR4.NEG</f>
@@ -18069,7 +18138,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B122" t="str" cm="1">
         <f t="array" ref="B122">[1]!PETZ3.DAT</f>
@@ -18096,7 +18165,7 @@
         <v>-1.4565316340464283</v>
       </c>
       <c r="H122" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I122" cm="1">
         <f t="array" ref="I122">[1]!PETZ3.NEG</f>
@@ -18113,7 +18182,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B123" t="str" cm="1">
         <f t="array" ref="B123">[1]!PFRM3.DAT</f>
@@ -18140,7 +18209,7 @@
         <v>-2.6315789473684199</v>
       </c>
       <c r="H123" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I123" cm="1">
         <f t="array" ref="I123">[1]!PFRM3.NEG</f>
@@ -18157,7 +18226,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B124" t="str" cm="1">
         <f t="array" ref="B124">[1]!PGMN3.DAT</f>
@@ -18184,7 +18253,7 @@
         <v>-0.80000000000000071</v>
       </c>
       <c r="H124" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I124" cm="1">
         <f t="array" ref="I124">[1]!PGMN3.NEG</f>
@@ -18201,7 +18270,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B125" t="str" cm="1">
         <f t="array" ref="B125">[1]!PLPL3.DAT</f>
@@ -18228,7 +18297,7 @@
         <v>-1.7647058823529429</v>
       </c>
       <c r="H125" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I125" cm="1">
         <f t="array" ref="I125">[1]!PLPL3.NEG</f>
@@ -18245,7 +18314,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B126" t="str" cm="1">
         <f t="array" ref="B126">[1]!PNVL3.DAT</f>
@@ -18272,7 +18341,7 @@
         <v>-2.9967727063162846</v>
       </c>
       <c r="H126" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I126" cm="1">
         <f t="array" ref="I126">[1]!PNVL3.NEG</f>
@@ -18289,7 +18358,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B127" t="str" cm="1">
         <f t="array" ref="B127">[1]!POMO4.DAT</f>
@@ -18316,7 +18385,7 @@
         <v>-3.947368421052635</v>
       </c>
       <c r="H127" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I127" cm="1">
         <f t="array" ref="I127">[1]!POMO4.NEG</f>
@@ -18333,7 +18402,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B128" t="str" cm="1">
         <f t="array" ref="B128">[1]!POSI3.DAT</f>
@@ -18360,7 +18429,7 @@
         <v>-1.0752688172043163</v>
       </c>
       <c r="H128" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I128" cm="1">
         <f t="array" ref="I128">[1]!POSI3.NEG</f>
@@ -18377,7 +18446,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B129" t="str" cm="1">
         <f t="array" ref="B129">[1]!PRIO3.DAT</f>
@@ -18404,7 +18473,7 @@
         <v>-1.3007284079084287</v>
       </c>
       <c r="H129" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I129" cm="1">
         <f t="array" ref="I129">[1]!PRIO3.NEG</f>
@@ -18421,7 +18490,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B130" t="str" cm="1">
         <f t="array" ref="B130">[1]!PRNR3.DAT</f>
@@ -18448,7 +18517,7 @@
         <v>4.6971569839307881</v>
       </c>
       <c r="H130" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I130" cm="1">
         <f t="array" ref="I130">[1]!PRNR3.NEG</f>
@@ -18465,7 +18534,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B131" t="str" cm="1">
         <f t="array" ref="B131">[1]!PSSA3.DAT</f>
@@ -18492,7 +18561,7 @@
         <v>-0.66198595787361747</v>
       </c>
       <c r="H131" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I131" cm="1">
         <f t="array" ref="I131">[1]!PSSA3.NEG</f>
@@ -18509,7 +18578,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B132" t="str" cm="1">
         <f t="array" ref="B132">[1]!PTBL3.DAT</f>
@@ -18536,7 +18605,7 @@
         <v>1.8556701030927991</v>
       </c>
       <c r="H132" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I132" cm="1">
         <f t="array" ref="I132">[1]!PTBL3.NEG</f>
@@ -18553,7 +18622,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B133" t="str" cm="1">
         <f t="array" ref="B133">[1]!QUAL3.DAT</f>
@@ -18580,7 +18649,7 @@
         <v>-0.98039215686275227</v>
       </c>
       <c r="H133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I133" cm="1">
         <f t="array" ref="I133">[1]!QUAL3.NEG</f>
@@ -18597,7 +18666,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B134" t="str" cm="1">
         <f t="array" ref="B134">[1]!RADL3.DAT</f>
@@ -18624,7 +18693,7 @@
         <v>-2.201257861635229</v>
       </c>
       <c r="H134" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I134" cm="1">
         <f t="array" ref="I134">[1]!RADL3.NEG</f>
@@ -18641,7 +18710,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B135" t="str" cm="1">
         <f t="array" ref="B135">[1]!RAIL3.DAT</f>
@@ -18668,7 +18737,7 @@
         <v>-0.92165898617511199</v>
       </c>
       <c r="H135" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I135" cm="1">
         <f t="array" ref="I135">[1]!RAIL3.NEG</f>
@@ -18685,7 +18754,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B136" t="str" cm="1">
         <f t="array" ref="B136">[1]!RAPT4.DAT</f>
@@ -18712,7 +18781,7 @@
         <v>-0.77138849929873377</v>
       </c>
       <c r="H136" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I136" cm="1">
         <f t="array" ref="I136">[1]!RAPT4.NEG</f>
@@ -18729,7 +18798,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B137" t="str" cm="1">
         <f t="array" ref="B137">[1]!RDOR3.DAT</f>
@@ -18756,7 +18825,7 @@
         <v>3.380281690140853</v>
       </c>
       <c r="H137" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I137" cm="1">
         <f t="array" ref="I137">[1]!RDOR3.NEG</f>
@@ -18773,7 +18842,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B138" t="str" cm="1">
         <f t="array" ref="B138">[1]!RENT3.DAT</f>
@@ -18800,7 +18869,7 @@
         <v>1.1627906976744145</v>
       </c>
       <c r="H138" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I138" cm="1">
         <f t="array" ref="I138">[1]!RENT3.NEG</f>
@@ -18817,7 +18886,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B139" t="str" cm="1">
         <f t="array" ref="B139">[1]!RLOG3.DAT</f>
@@ -18844,7 +18913,7 @@
         <v>1.2742099898063199</v>
       </c>
       <c r="H139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I139" cm="1">
         <f t="array" ref="I139">[1]!RLOG3.NEG</f>
@@ -18861,7 +18930,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B140" t="str" cm="1">
         <f t="array" ref="B140">[1]!ROMI3.DAT</f>
@@ -18888,7 +18957,7 @@
         <v>-2.8153153153153152</v>
       </c>
       <c r="H140" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I140" cm="1">
         <f t="array" ref="I140">[1]!ROMI3.NEG</f>
@@ -18905,7 +18974,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B141" t="str" cm="1">
         <f t="array" ref="B141">[1]!RRRP3.DAT</f>
@@ -18932,7 +19001,7 @@
         <v>-0.75890251021598953</v>
       </c>
       <c r="H141" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I141" cm="1">
         <f t="array" ref="I141">[1]!RRRP3.NEG</f>
@@ -18949,7 +19018,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B142" t="str" cm="1">
         <f t="array" ref="B142">[1]!SANB11.DAT</f>
@@ -18976,7 +19045,7 @@
         <v>0.90597453476982714</v>
       </c>
       <c r="H142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I142" cm="1">
         <f t="array" ref="I142">[1]!SANB11.NEG</f>
@@ -18993,7 +19062,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B143" t="str" cm="1">
         <f t="array" ref="B143">[1]!SAPR11.DAT</f>
@@ -19020,7 +19089,7 @@
         <v>-2.1114106019766505</v>
       </c>
       <c r="H143" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I143" cm="1">
         <f t="array" ref="I143">[1]!SAPR11.NEG</f>
@@ -19037,7 +19106,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B144" t="str" cm="1">
         <f t="array" ref="B144">[1]!SBSP3.DAT</f>
@@ -19064,7 +19133,7 @@
         <v>-3.0673376467768851</v>
       </c>
       <c r="H144" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I144" cm="1">
         <f t="array" ref="I144">[1]!SBSP3.NEG</f>
@@ -19081,7 +19150,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B145" t="str" cm="1">
         <f t="array" ref="B145">[1]!SEER3.DAT</f>
@@ -19108,7 +19177,7 @@
         <v>-0.78636959370903814</v>
       </c>
       <c r="H145" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I145" cm="1">
         <f t="array" ref="I145">[1]!SEER3.NEG</f>
@@ -19125,7 +19194,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B146" t="str" cm="1">
         <f t="array" ref="B146">[1]!SEQL3.DAT</f>
@@ -19152,7 +19221,7 @@
         <v>4.9186006234845792</v>
       </c>
       <c r="H146" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I146" cm="1">
         <f t="array" ref="I146">[1]!SEQL3.NEG</f>
@@ -19169,7 +19238,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B147" t="str" cm="1">
         <f t="array" ref="B147">[1]!SIMH3.DAT</f>
@@ -19196,7 +19265,7 @@
         <v>1.5656565656565591</v>
       </c>
       <c r="H147" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I147" cm="1">
         <f t="array" ref="I147">[1]!SIMH3.NEG</f>
@@ -19213,7 +19282,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B148" t="str" cm="1">
         <f t="array" ref="B148">[1]!SLCE3.DAT</f>
@@ -19240,7 +19309,7 @@
         <v>-2.7447875428873032</v>
       </c>
       <c r="H148" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I148" cm="1">
         <f t="array" ref="I148">[1]!SLCE3.NEG</f>
@@ -19257,7 +19326,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B149" t="str" cm="1">
         <f t="array" ref="B149">[1]!SMLS3.DAT</f>
@@ -19284,7 +19353,7 @@
         <v>-0.22789425706472519</v>
       </c>
       <c r="H149" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I149" cm="1">
         <f t="array" ref="I149">[1]!SMLS3.NEG</f>
@@ -19301,7 +19370,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B150" t="str" cm="1">
         <f t="array" ref="B150">[1]!SMTO3.DAT</f>
@@ -19328,7 +19397,7 @@
         <v>-0.62499999999999256</v>
       </c>
       <c r="H150" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I150" cm="1">
         <f t="array" ref="I150">[1]!SMTO3.NEG</f>
@@ -19345,7 +19414,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B151" t="str" cm="1">
         <f t="array" ref="B151">[1]!SOMA3.DAT</f>
@@ -19372,7 +19441,7 @@
         <v>0.19828155981493298</v>
       </c>
       <c r="H151" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I151" cm="1">
         <f t="array" ref="I151">[1]!SOMA3.NEG</f>
@@ -19389,7 +19458,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B152" t="str" cm="1">
         <f t="array" ref="B152">[1]!SQIA3.DAT</f>
@@ -19416,7 +19485,7 @@
         <v>-2.5673940949935874</v>
       </c>
       <c r="H152" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I152" cm="1">
         <f t="array" ref="I152">[1]!SQIA3.NEG</f>
@@ -19433,7 +19502,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B153" t="str" cm="1">
         <f t="array" ref="B153">[1]!STBP3.DAT</f>
@@ -19460,7 +19529,7 @@
         <v>-2.2935779816513815</v>
       </c>
       <c r="H153" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I153" cm="1">
         <f t="array" ref="I153">[1]!STBP3.NEG</f>
@@ -19477,7 +19546,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B154" t="str" cm="1">
         <f t="array" ref="B154">[1]!SUZB3.DAT</f>
@@ -19504,7 +19573,7 @@
         <v>1.2685982772122086</v>
       </c>
       <c r="H154" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I154" cm="1">
         <f t="array" ref="I154">[1]!SUZB3.NEG</f>
@@ -19521,7 +19590,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B155" t="str" cm="1">
         <f t="array" ref="B155">[1]!TAEE11.DAT</f>
@@ -19548,7 +19617,7 @@
         <v>-0.48048048048047026</v>
       </c>
       <c r="H155" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I155" cm="1">
         <f t="array" ref="I155">[1]!TAEE11.NEG</f>
@@ -19565,7 +19634,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B156" t="str" cm="1">
         <f t="array" ref="B156">[1]!TASA4.DAT</f>
@@ -19592,7 +19661,7 @@
         <v>-0.56529112492934663</v>
       </c>
       <c r="H156" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I156" cm="1">
         <f t="array" ref="I156">[1]!TASA4.NEG</f>
@@ -19609,7 +19678,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B157" t="str" cm="1">
         <f t="array" ref="B157">[1]!TEND3.DAT</f>
@@ -19636,7 +19705,7 @@
         <v>-0.13656538067599572</v>
       </c>
       <c r="H157" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I157" cm="1">
         <f t="array" ref="I157">[1]!TEND3.NEG</f>
@@ -19653,7 +19722,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B158" t="str" cm="1">
         <f t="array" ref="B158">[1]!TFCO4.DAT</f>
@@ -19680,7 +19749,7 @@
         <v>-1.9886363636363591</v>
       </c>
       <c r="H158" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I158" cm="1">
         <f t="array" ref="I158">[1]!TFCO4.NEG</f>
@@ -19697,7 +19766,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B159" t="str" cm="1">
         <f t="array" ref="B159">[1]!TGMA3.DAT</f>
@@ -19724,7 +19793,7 @@
         <v>-1.2952380952380946</v>
       </c>
       <c r="H159" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I159" cm="1">
         <f t="array" ref="I159">[1]!TGMA3.NEG</f>
@@ -19741,7 +19810,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B160" t="str" cm="1">
         <f t="array" ref="B160">[1]!TIET11.DAT</f>
@@ -19768,7 +19837,7 @@
         <v>-0.17825311942957567</v>
       </c>
       <c r="H160" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I160" cm="1">
         <f t="array" ref="I160">[1]!TIET11.NEG</f>
@@ -19785,7 +19854,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B161" t="str" cm="1">
         <f t="array" ref="B161">[1]!TIMS3.DAT</f>
@@ -19812,7 +19881,7 @@
         <v>-1.6335227272727304</v>
       </c>
       <c r="H161" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I161" cm="1">
         <f t="array" ref="I161">[1]!TIMS3.NEG</f>
@@ -19829,7 +19898,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B162" t="str" cm="1">
         <f t="array" ref="B162">[1]!TOTS3.DAT</f>
@@ -19856,7 +19925,7 @@
         <v>0.47329276538201681</v>
       </c>
       <c r="H162" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I162" cm="1">
         <f t="array" ref="I162">[1]!TOTS3.NEG</f>
@@ -19873,7 +19942,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B163" t="str" cm="1">
         <f t="array" ref="B163">[1]!TRIS3.DAT</f>
@@ -19900,7 +19969,7 @@
         <v>-0.61135371179038001</v>
       </c>
       <c r="H163" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I163" cm="1">
         <f t="array" ref="I163">[1]!TRIS3.NEG</f>
@@ -19917,7 +19986,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B164" t="str" cm="1">
         <f t="array" ref="B164">[1]!TRPL4.DAT</f>
@@ -19944,7 +20013,7 @@
         <v>-1.8106374952847997</v>
       </c>
       <c r="H164" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I164" cm="1">
         <f t="array" ref="I164">[1]!TRPL4.NEG</f>
@@ -19961,7 +20030,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B165" t="str" cm="1">
         <f t="array" ref="B165">[1]!TUPY3.DAT</f>
@@ -19988,7 +20057,7 @@
         <v>-1.4518257809062993</v>
       </c>
       <c r="H165" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I165" cm="1">
         <f t="array" ref="I165">[1]!TUPY3.NEG</f>
@@ -20005,7 +20074,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B166" t="str" cm="1">
         <f t="array" ref="B166">[1]!UGPA3.DAT</f>
@@ -20032,7 +20101,7 @@
         <v>-0.59701492537313672</v>
       </c>
       <c r="H166" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I166" cm="1">
         <f t="array" ref="I166">[1]!UGPA3.NEG</f>
@@ -20049,7 +20118,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B167" t="str" cm="1">
         <f t="array" ref="B167">[1]!UNIP6.DAT</f>
@@ -20076,7 +20145,7 @@
         <v>-1.5802888700084956</v>
       </c>
       <c r="H167" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I167" cm="1">
         <f t="array" ref="I167">[1]!UNIP6.NEG</f>
@@ -20093,7 +20162,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B168" t="str" cm="1">
         <f t="array" ref="B168">[1]!USIM5.DAT</f>
@@ -20120,7 +20189,7 @@
         <v>0.99846390168971422</v>
       </c>
       <c r="H168" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I168" cm="1">
         <f t="array" ref="I168">[1]!USIM5.NEG</f>
@@ -20137,7 +20206,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B169" t="str" cm="1">
         <f t="array" ref="B169">[1]!VALE3.DAT</f>
@@ -20164,7 +20233,7 @@
         <v>-1.2606435917284093</v>
       </c>
       <c r="H169" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I169" cm="1">
         <f t="array" ref="I169">[1]!VALE3.NEG</f>
@@ -20181,7 +20250,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B170" t="str" cm="1">
         <f t="array" ref="B170">[1]!VIVA3.DAT</f>
@@ -20208,7 +20277,7 @@
         <v>1.9847328244274793</v>
       </c>
       <c r="H170" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I170" cm="1">
         <f t="array" ref="I170">[1]!VIVA3.NEG</f>
@@ -20225,7 +20294,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B171" t="str" cm="1">
         <f t="array" ref="B171">[1]!VIVT3.DAT</f>
@@ -20252,7 +20321,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I171" cm="1">
         <f t="array" ref="I171">[1]!VIVT3.NEG</f>
@@ -20269,7 +20338,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B172" t="str" cm="1">
         <f t="array" ref="B172">[1]!VLID3.DAT</f>
@@ -20296,7 +20365,7 @@
         <v>-0.67491563554556233</v>
       </c>
       <c r="H172" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I172" cm="1">
         <f t="array" ref="I172">[1]!VLID3.NEG</f>
@@ -20313,7 +20382,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B173" t="str" cm="1">
         <f t="array" ref="B173">[1]!VULC3.DAT</f>
@@ -20340,7 +20409,7 @@
         <v>-0.22547914317925113</v>
       </c>
       <c r="H173" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I173" cm="1">
         <f t="array" ref="I173">[1]!VULC3.NEG</f>
@@ -20357,7 +20426,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B174" t="str" cm="1">
         <f t="array" ref="B174">[1]!VVAR3.DAT</f>
@@ -20384,7 +20453,7 @@
         <v>-0.53050397877984135</v>
       </c>
       <c r="H174" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I174" cm="1">
         <f t="array" ref="I174">[1]!VVAR3.NEG</f>
@@ -20401,7 +20470,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B175" t="str" cm="1">
         <f t="array" ref="B175">[1]!WEGE3.DAT</f>
@@ -20428,7 +20497,7 @@
         <v>-3.4961091688282493</v>
       </c>
       <c r="H175" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I175" cm="1">
         <f t="array" ref="I175">[1]!WEGE3.NEG</f>
@@ -20445,7 +20514,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B176" t="str" cm="1">
         <f t="array" ref="B176">[1]!WIZS3.DAT</f>
@@ -20472,7 +20541,7 @@
         <v>1.8796992481203052</v>
       </c>
       <c r="H176" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I176" cm="1">
         <f t="array" ref="I176">[1]!WIZS3.NEG</f>
@@ -20489,7 +20558,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B177" t="str" cm="1">
         <f t="array" ref="B177">[1]!YDUQ3.DAT</f>
@@ -20516,7 +20585,7 @@
         <v>-2.8787438208781682</v>
       </c>
       <c r="H177" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I177" cm="1">
         <f t="array" ref="I177">[1]!YDUQ3.NEG</f>
@@ -20533,7 +20602,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B178" t="str" cm="1">
         <f t="array" ref="B178">[1]!BPAC11.DAT</f>
@@ -20560,7 +20629,7 @@
         <v>2.8083028083028037</v>
       </c>
       <c r="H178" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I178" cm="1">
         <f t="array" ref="I178">[1]!BPAC11.NEG</f>
@@ -20577,7 +20646,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B179" t="str" cm="1">
         <f t="array" ref="B179">[1]!ESPA3.DAT</f>
@@ -20604,7 +20673,7 @@
         <v>1.2616822429906689</v>
       </c>
       <c r="H179" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I179" cm="1">
         <f t="array" ref="I179">[1]!ESPA3.NEG</f>
@@ -20617,6 +20686,50 @@
       <c r="K179" cm="1">
         <f t="array" ref="K179">[1]!ESPA3.VOL</f>
         <v>43666089</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>367</v>
+      </c>
+      <c r="B180" t="str" cm="1">
+        <f t="array" ref="B180">[1]!INTB3.DAT</f>
+        <v>04/02/2021</v>
+      </c>
+      <c r="C180" cm="1">
+        <f t="array" ref="C180">[1]!INTB3.ULT</f>
+        <v>19.739999999999998</v>
+      </c>
+      <c r="D180" cm="1">
+        <f t="array" ref="D180">[1]!INTB3.ABE</f>
+        <v>18.5</v>
+      </c>
+      <c r="E180" cm="1">
+        <f t="array" ref="E180">[1]!INTB3.MAX</f>
+        <v>20.34</v>
+      </c>
+      <c r="F180" cm="1">
+        <f t="array" ref="F180">[1]!INTB3.MIN</f>
+        <v>18.11</v>
+      </c>
+      <c r="G180" cm="1">
+        <f t="array" ref="G180">[1]!INTB3.VAR</f>
+        <v>6.7027027027026946</v>
+      </c>
+      <c r="H180" t="s">
+        <v>368</v>
+      </c>
+      <c r="I180" cm="1">
+        <f t="array" ref="I180">[1]!INTB3.NEG</f>
+        <v>59999</v>
+      </c>
+      <c r="J180" cm="1">
+        <f t="array" ref="J180">[1]!INTB3.QTT</f>
+        <v>25822600</v>
+      </c>
+      <c r="K180" cm="1">
+        <f t="array" ref="K180">[1]!INTB3.VOL</f>
+        <v>492087713</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas_diarias/fonte_DDE.xlsx
+++ b/planilhas_diarias/fonte_DDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1998a\Documents\GitHub\bolsistas_da\planilhas_diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF26D310-1ED6-4399-9CE5-4F89174ACBE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EBD8AA-CFC1-4D89-AD44-54D106219196}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C038CEB-9B45-4F67-85E3-1396042E3C2A}"/>
   </bookViews>
